--- a/biology/Médecine/Nilotinib/Nilotinib.xlsx
+++ b/biology/Médecine/Nilotinib/Nilotinib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nilotinib est un inhibiteur de l'activité tyrosine kinase Abl de l'oncoprotéine Bcr-Abl (Bcr : Breakpoint cluster region (en) - Abl : ABL (gene) (en))[1], à la fois dans les lignées cellulaires et dans les cellules leucémiques primaires chromosome Philadelphie positives. Le nilotinib est commercialisé par Novartis sous le nom de Tasigna (nom de code : AMN107).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nilotinib est un inhibiteur de l'activité tyrosine kinase Abl de l'oncoprotéine Bcr-Abl (Bcr : Breakpoint cluster region (en) - Abl : ABL (gene) (en)), à la fois dans les lignées cellulaires et dans les cellules leucémiques primaires chromosome Philadelphie positives. Le nilotinib est commercialisé par Novartis sous le nom de Tasigna (nom de code : AMN107).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nilotinib présente une forte affinité pour le site de liaison de l'adénosine triphosphate (ATP) avec lequel il va entrer en compétition. Il devient ainsi inhibiteur de l'oncoprotéine Bcr-Abl, y compris des formes résistantes à l'imatinib[2]. Le nilotinib inhibe de manière sélective la prolifération et induit l'apoptose au niveau des lignées cellulaires et des cellules leucémiques primaires chromosome Philadelphie positives, chez les patients atteints de leucémie myéloïde chronique (LMC)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nilotinib présente une forte affinité pour le site de liaison de l'adénosine triphosphate (ATP) avec lequel il va entrer en compétition. Il devient ainsi inhibiteur de l'oncoprotéine Bcr-Abl, y compris des formes résistantes à l'imatinib. Le nilotinib inhibe de manière sélective la prolifération et induit l'apoptose au niveau des lignées cellulaires et des cellules leucémiques primaires chromosome Philadelphie positives, chez les patients atteints de leucémie myéloïde chronique (LMC).
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis le 6 avril 2011, le nilotinib est indiqué en traitement de première ligne de la leucémie myéloïde chronique (LMC) chromosome Philadelphie positif (Ph+) en phase chronique, nouvellement diagnostiquée[4].
-Dans la mesure où la même thymidine kinase est activée dans le cerveau des patients parkinsoniens, le nilotinib est aussi testé dans cette pathologie[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis le 6 avril 2011, le nilotinib est indiqué en traitement de première ligne de la leucémie myéloïde chronique (LMC) chromosome Philadelphie positif (Ph+) en phase chronique, nouvellement diagnostiquée.
+Dans la mesure où la même thymidine kinase est activée dans le cerveau des patients parkinsoniens, le nilotinib est aussi testé dans cette pathologie.
 </t>
         </is>
       </c>
